--- a/Experiments/Top-k Skyline/Top-k Skyline Results.xlsx
+++ b/Experiments/Top-k Skyline/Top-k Skyline Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Experiments\Top-k Skyline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33AED6-B584-491A-9526-87D18FD41D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36201C77-7D95-4819-A525-6DF59EA86ACF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Executors" sheetId="2" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
                   <c:v>96.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>841.35</c:v>
+                  <c:v>441.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,12 +2460,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$B$2:$B$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$B$2:$B$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>61.56</c:v>
                 </c:pt>
@@ -2505,12 +2534,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$C$2:$C$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$C$2:$C$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>101.5</c:v>
                 </c:pt>
@@ -2550,12 +2608,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$D$2:$D$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$D$2:$D$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
@@ -2595,12 +2682,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>k!$E$2:$E$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>k!$E$2:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>k!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>56.6</c:v>
                 </c:pt>
@@ -2660,18 +2776,45 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:val>
+                <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>k!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>k!$A$2:$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>k!$A$2:$A$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>k!$A$2:$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>10</c:v>
                       </c:pt>
@@ -5208,9 +5351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5686,7 +5829,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5794,7 +5937,7 @@
         <v>199.19</v>
       </c>
       <c r="C5" s="10">
-        <v>841.35</v>
+        <v>441.35</v>
       </c>
       <c r="D5" s="10">
         <v>488.2</v>
@@ -5821,7 +5964,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -8933,8 +9076,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
